--- a/biology/Médecine/1186_en_santé_et_médecine/1186_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1186_en_santé_et_médecine/1186_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1186_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1186_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1186 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1186_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1186_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Institutions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Un hospice Sainte-Madeleine est attesté à La Réole en Aquitaine[1].
-La léproserie Saint-Nicolas et Sainte-Madeleine du Bois-du-Parc est attestée à Eu, en Normandie[2],[3].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Un hospice Sainte-Madeleine est attesté à La Réole en Aquitaine.
+La léproserie Saint-Nicolas et Sainte-Madeleine du Bois-du-Parc est attestée à Eu, en Normandie,.</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1186_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1186_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Rigord, historien et médecin de Philippe-Auguste, « au temps où Geoffroy, duc de Bourgogne [sic[4]] et fils de Henri II, roi d'Angleterre, mourut à Paris, en 1186, il y avait dans cette ville un grand nombre de médecins[5] ».</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Rigord, historien et médecin de Philippe-Auguste, « au temps où Geoffroy, duc de Bourgogne [sic] et fils de Henri II, roi d'Angleterre, mourut à Paris, en 1186, il y avait dans cette ville un grand nombre de médecins ».</t>
         </is>
       </c>
     </row>
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1186_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1186_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,11 +588,13 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Fl. Raoul, médecin, cité dans une charte du chapitre de Saint-Nazaire de Béziers, en Languedoc[6]
-Fl. Gautier, médecin de Robert Ier, comte de Dreux[7].
-1173[8]-1186 : fl. Guillaume de Gap, médecin, abbé de Saint-Denis[7].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fl. Raoul, médecin, cité dans une charte du chapitre de Saint-Nazaire de Béziers, en Languedoc
+Fl. Gautier, médecin de Robert Ier, comte de Dreux.
+1173-1186 : fl. Guillaume de Gap, médecin, abbé de Saint-Denis.</t>
         </is>
       </c>
     </row>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1186_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1186_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,9 +622,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Song Ci (mort en 1249), médecin légiste chinois, auteur en 1242 du Xi Yuan Ji Lu (« Cas collectés d'injustices réparées »), premier traité de médecine légale, achevé en 1242[9],[10].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Song Ci (mort en 1249), médecin légiste chinois, auteur en 1242 du Xi Yuan Ji Lu (« Cas collectés d'injustices réparées »), premier traité de médecine légale, achevé en 1242,.
 </t>
         </is>
       </c>
